--- a/formshare/tests/resources/forms/form04.xlsx
+++ b/formshare/tests/resources/forms/form04.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -105,10 +105,38 @@
     <t xml:space="preserve">GPS</t>
   </si>
   <si>
-    <t xml:space="preserve">select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">select_one </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">yesno</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">yesno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one sino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si No</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -151,9 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">sexs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yesno</t>
   </si>
   <si>
     <t xml:space="preserve">Si</t>
@@ -181,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -202,6 +227,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -272,11 +302,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,10 +327,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,13 +469,24 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -464,12 +505,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="1" sqref="11:11 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,7 +524,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -494,24 +535,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -522,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -533,12 +574,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>1</v>
@@ -549,31 +590,31 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>1</v>
@@ -584,46 +625,68 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -644,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="11:11 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,18 +721,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
